--- a/Simulation study array.xlsx
+++ b/Simulation study array.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lintu\Documents\TriTheoryTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45621507-B696-47E2-A291-612A0BEE6B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75026EED-12D9-4EFE-8749-EDAD075CAC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{AD297AA8-05E1-493A-86CC-F937BEFAB5A4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Scenario</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>2 Timepoints</t>
-  </si>
-  <si>
-    <t>Timeseries (intensive)</t>
   </si>
   <si>
     <t>Exogenous variable</t>
@@ -146,6 +143,18 @@
   </si>
   <si>
     <t>Theoretical models:</t>
+  </si>
+  <si>
+    <t>Collider bias</t>
+  </si>
+  <si>
+    <t>Timeseries (intensive, cross-lagged)</t>
+  </si>
+  <si>
+    <t>Intervention design</t>
+  </si>
+  <si>
+    <t>Intervention design (intensive cross-lagged)</t>
   </si>
 </sst>
 </file>
@@ -276,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -285,67 +294,61 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -371,7 +374,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1485900</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>223551</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4457700" cy="491032"/>
@@ -561,7 +564,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>109251</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4457700" cy="240579"/>
@@ -634,7 +637,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1409700</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>128301</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4457700" cy="240579"/>
@@ -999,640 +1002,435 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A263E5D1-4E06-42F2-8C53-32EF11C70785}">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="3" customWidth="1"/>
-    <col min="3" max="6" width="12.140625" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="8" width="12.140625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="1:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="2" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+    </row>
+    <row r="17" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+    </row>
+    <row r="18" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-    </row>
-    <row r="4" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6" t="s">
+    </row>
+    <row r="20" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-    </row>
-    <row r="12" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-    </row>
-    <row r="16" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-    </row>
-    <row r="17" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="19" t="s">
+    </row>
+    <row r="21" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B17:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
